--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3338717.382420403</v>
+        <v>3336466.56403451</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>133.0230423553099</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>15.91242278797887</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>113.1582649106626</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.1365194952145</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U7" t="n">
-        <v>136.1286387281321</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>220.9109866599767</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>21.91205961778167</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132226</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.25588147840154</v>
+        <v>74.75769145492337</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>58.69387841119115</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>37.03487381917583</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>204.8807665510126</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>146.9083821604492</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.4208103954747</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>181.137549478599</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>17.15794421524278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>270.0697021486462</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.137549478599</v>
+        <v>32.52207646038676</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744759</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>17.19701978441002</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531006</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>51.19843204834167</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301915</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I34" t="n">
-        <v>67.9560873810014</v>
+        <v>35.52782197061592</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121064</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U34" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W34" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X34" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531006</v>
+        <v>26.03456888002371</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>51.19843204834227</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
-        <v>137.6294752301915</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I37" t="n">
-        <v>67.9560873810014</v>
+        <v>67.95608738100147</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121064</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S37" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T37" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U37" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W37" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X37" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3557,7 +3557,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589034</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697911</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>49.9774192087426</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>116.254558857494</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.9560873810014</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121064</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S40" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W40" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X40" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531006</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>51.19843204834137</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301915</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I43" t="n">
-        <v>67.9560873810014</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121064</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S43" t="n">
-        <v>161.3726923026052</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U43" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W43" t="n">
-        <v>258.1266653077543</v>
+        <v>258.1266653077544</v>
       </c>
       <c r="X43" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232581</v>
+        <v>15.71514184780058</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531006</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
         <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.6600641933968</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100152</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S46" t="n">
         <v>161.3726923026053</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1526162473325</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U46" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949913</v>
+        <v>223.7413102949914</v>
       </c>
       <c r="W46" t="n">
-        <v>258.1266653077543</v>
+        <v>254.1620841758727</v>
       </c>
       <c r="X46" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232581</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.4137200851862</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>940.4137200851862</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>940.4137200851862</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>940.4137200851862</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>529.4278152955787</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>515.5044112341697</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>188.3096912701725</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.6186503862</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.15289212512</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.013560149308</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>563.9091713093267</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>563.9091713093267</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>274.7355609638946</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>902.4179758042681</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>533.4554588638564</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>175.1897602571059</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>175.1897602571059</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>168.2442595079024</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.01781586839</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>590.6253087234725</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>590.6253087234725</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>590.6253087234725</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>590.6253087234725</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2280.203542751141</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1949.14065540757</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.372000137456</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1222.906241876376</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>688.885551920185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146244</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,25 +5042,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208123</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838517</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858344</v>
+        <v>391.8664332433623</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423043</v>
+        <v>171.0738540998322</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>845.0839474760708</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
-        <v>1296.118160724479</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2274.668463554308</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N14" t="n">
-        <v>3254.420735780954</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5321,7 +5321,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5367,10 +5367,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902953</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>704.2840989361212</v>
+        <v>399.0634049978495</v>
       </c>
       <c r="C16" t="n">
-        <v>704.2840989361212</v>
+        <v>399.0634049978495</v>
       </c>
       <c r="D16" t="n">
-        <v>704.2840989361212</v>
+        <v>399.0634049978495</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>399.0634049978495</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>252.1734574999392</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>252.1734574999392</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1918.93450265099</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1918.93450265099</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1697.167887220516</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1697.167887220516</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1442.483399014629</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>1153.066228977669</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X16" t="n">
-        <v>925.0766780796513</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="Y16" t="n">
-        <v>704.2840989361212</v>
+        <v>399.0634049978495</v>
       </c>
     </row>
     <row r="17">
@@ -5498,40 +5498,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2628.734306600803</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3189.361480106701</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736755</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736755</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736755</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5677,7 +5677,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1183.111635982423</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W19" t="n">
-        <v>893.6944659454624</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>665.7049150474451</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.9123359039151</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,25 +5753,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N20" t="n">
-        <v>3316.966490094645</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>613.6330486738361</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>613.6330486738361</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>463.5164092615004</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>315.6033156791073</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811972</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811972</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811972</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,46 +5914,46 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>613.6330486738361</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>613.6330486738361</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5993,19 +5993,19 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2215.249704195857</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N23" t="n">
-        <v>2762.028521254639</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>210.2179684131225</v>
+      </c>
+      <c r="C25" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="D25" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="E25" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="F25" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="G25" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="H25" t="n">
+        <v>192.8867116300491</v>
+      </c>
+      <c r="I25" t="n">
         <v>95.56103444839442</v>
-      </c>
-      <c r="C25" t="n">
-        <v>95.56103444839442</v>
-      </c>
-      <c r="D25" t="n">
-        <v>95.56103444839442</v>
-      </c>
-      <c r="E25" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="F25" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="G25" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="H25" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="I25" t="n">
-        <v>95.56103444839439</v>
       </c>
       <c r="J25" t="n">
         <v>140.6836668953299</v>
@@ -6151,7 +6151,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433623</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786342</v>
+        <v>391.8664332433623</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6233,43 +6233,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,16 +6397,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
         <v>1674.827124689058</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,25 +6461,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6619,16 +6619,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6640,31 +6640,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1657.456397634098</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1368.353530759742</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1113.669042553855</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>824.2518725168941</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>596.2623216188767</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551634</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>818.2062848686785</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1682.725100522033</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193958</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420605</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107238</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.4728289383123</v>
+        <v>625.4381290929591</v>
       </c>
       <c r="C34" t="n">
-        <v>472.4728289383123</v>
+        <v>625.4381290929591</v>
       </c>
       <c r="D34" t="n">
-        <v>472.4728289383123</v>
+        <v>625.4381290929591</v>
       </c>
       <c r="E34" t="n">
-        <v>420.7572410106945</v>
+        <v>506.2082001861585</v>
       </c>
       <c r="F34" t="n">
-        <v>420.7572410106945</v>
+        <v>388.0014173638406</v>
       </c>
       <c r="G34" t="n">
-        <v>281.7375690610061</v>
+        <v>248.9817454141521</v>
       </c>
       <c r="H34" t="n">
-        <v>164.2035469544564</v>
+        <v>131.4477233076024</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>168.7960365938783</v>
       </c>
       <c r="K34" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883473</v>
+        <v>745.5677573883471</v>
       </c>
       <c r="M34" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N34" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O34" t="n">
         <v>1814.799887709819</v>
@@ -6880,10 +6880,10 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
-        <v>2120.095131126211</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S34" t="n">
-        <v>1957.09241162863</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T34" t="n">
         <v>1764.008960873748</v>
@@ -6892,16 +6892,16 @@
         <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1277.58793514469</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.853929783322</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608969</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.4381290929593</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,10 +6923,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,19 +6935,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522032</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -6965,22 +6965,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>472.4728289383129</v>
+        <v>798.4469709921273</v>
       </c>
       <c r="C37" t="n">
-        <v>472.4728289383129</v>
+        <v>658.193952739813</v>
       </c>
       <c r="D37" t="n">
-        <v>472.4728289383129</v>
+        <v>658.193952739813</v>
       </c>
       <c r="E37" t="n">
-        <v>420.7572410106945</v>
+        <v>538.9640238330124</v>
       </c>
       <c r="F37" t="n">
-        <v>420.7572410106945</v>
+        <v>420.7572410106947</v>
       </c>
       <c r="G37" t="n">
-        <v>281.737569061006</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="H37" t="n">
-        <v>164.2035469544564</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K37" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N37" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O37" t="n">
         <v>1814.799887709819</v>
@@ -7114,7 +7114,7 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R37" t="n">
         <v>2120.09513112621</v>
@@ -7129,16 +7129,16 @@
         <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1277.58793514469</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W37" t="n">
-        <v>1016.853929783322</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>817.5475435608973</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="Y37" t="n">
-        <v>625.4381290929599</v>
+        <v>824.7445153153835</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7169,49 +7169,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>416.109192788863</v>
+        <v>301.7164587107651</v>
       </c>
       <c r="K38" t="n">
-        <v>1070.832524924162</v>
+        <v>956.4397908460646</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.866738172571</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M38" t="n">
-        <v>2055.398642844496</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903278</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232733</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,16 +7281,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>472.472828938313</v>
+        <v>472.472828938312</v>
       </c>
       <c r="C40" t="n">
-        <v>332.2198106859987</v>
+        <v>332.2198106859978</v>
       </c>
       <c r="D40" t="n">
-        <v>332.2198106859987</v>
+        <v>332.2198106859978</v>
       </c>
       <c r="E40" t="n">
-        <v>281.737569061006</v>
+        <v>212.989881779197</v>
       </c>
       <c r="F40" t="n">
-        <v>281.737569061006</v>
+        <v>212.989881779197</v>
       </c>
       <c r="G40" t="n">
-        <v>281.737569061006</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>164.2035469544564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>168.7960365938783</v>
@@ -7345,13 +7345,13 @@
         <v>1487.357919090858</v>
       </c>
       <c r="O40" t="n">
-        <v>1814.79988770982</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P40" t="n">
-        <v>2075.519757842028</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q40" t="n">
-        <v>2181.242423693091</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R40" t="n">
         <v>2120.095131126211</v>
@@ -7363,7 +7363,7 @@
         <v>1764.008960873748</v>
       </c>
       <c r="U40" t="n">
-        <v>1503.589258674985</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
         <v>1277.58793514469</v>
@@ -7372,10 +7372,10 @@
         <v>1016.853929783322</v>
       </c>
       <c r="X40" t="n">
-        <v>817.5475435608976</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y40" t="n">
-        <v>625.43812909296</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
     <row r="41">
@@ -7391,55 +7391,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972664</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075806</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604875</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.472828938312</v>
+        <v>801.6736629065527</v>
       </c>
       <c r="C43" t="n">
-        <v>420.7572410106945</v>
+        <v>661.4206446542385</v>
       </c>
       <c r="D43" t="n">
-        <v>420.7572410106945</v>
+        <v>539.9871699174953</v>
       </c>
       <c r="E43" t="n">
-        <v>420.7572410106945</v>
+        <v>420.7572410106947</v>
       </c>
       <c r="F43" t="n">
-        <v>420.7572410106945</v>
+        <v>420.7572410106947</v>
       </c>
       <c r="G43" t="n">
-        <v>281.7375690610061</v>
+        <v>281.7375690610062</v>
       </c>
       <c r="H43" t="n">
         <v>164.2035469544565</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M43" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N43" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O43" t="n">
         <v>1814.799887709819</v>
@@ -7606,13 +7606,13 @@
         <v>1277.58793514469</v>
       </c>
       <c r="W43" t="n">
-        <v>1016.853929783321</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X43" t="n">
-        <v>817.5475435608967</v>
+        <v>817.5475435608968</v>
       </c>
       <c r="Y43" t="n">
-        <v>625.4381290929591</v>
+        <v>801.6736629065527</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551636</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001589</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277722</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.56914656307</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216424</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.619866888347</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3484.372139114992</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>4010.914672075809</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432986</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188668</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7710,43 +7710,43 @@
         <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320297</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454344</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.6201215051879</v>
+        <v>476.4774563442525</v>
       </c>
       <c r="C46" t="n">
-        <v>533.6201215051879</v>
+        <v>336.2244380919382</v>
       </c>
       <c r="D46" t="n">
-        <v>533.6201215051879</v>
+        <v>214.790963355195</v>
       </c>
       <c r="E46" t="n">
-        <v>414.3901925983873</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>296.1834097760695</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>164.2035469544566</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>164.2035469544566</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>168.7960365938781</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K46" t="n">
-        <v>400.8955892413023</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L46" t="n">
-        <v>745.567757388346</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686443</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090855</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.799887709816</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842023</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693086</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2181.242423693086</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S46" t="n">
-        <v>2018.239704195505</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>1825.156253440624</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U46" t="n">
-        <v>1564.73655124186</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1338.735227711565</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W46" t="n">
-        <v>1078.001222350197</v>
+        <v>1020.858557189262</v>
       </c>
       <c r="X46" t="n">
-        <v>878.6948361277725</v>
+        <v>821.5521709668374</v>
       </c>
       <c r="Y46" t="n">
-        <v>686.585421659835</v>
+        <v>629.4427564988996</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>226.0494095077361</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>229.1155640189945</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>353.7642348290873</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>96.13798426930805</v>
       </c>
       <c r="N17" t="n">
-        <v>13.98823883547038</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>19.79750571619365</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>258.621178561693</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,22 +9641,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>82.70159106555775</v>
       </c>
       <c r="O23" t="n">
-        <v>219.3344627260163</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>294.8707872801647</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>201.9664098701132</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>249.451501837949</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>89.5245633896194</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.9990175570132</v>
+        <v>17.45080131651034</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11060,25 +11060,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>67.53663776704354</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>5.284192235662204</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>23.8081435166489</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>67.53663776704269</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>162.5760987035358</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>86.06113650312963</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.89727885087152</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>81.33107165460032</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>71.67627119164555</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>23.93161001436342</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>150.0888768833851</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.14213605696675</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.074288727014</v>
+        <v>253.6897617452261</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696598</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>202.3519294917592</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697911</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
-        <v>66.83919756939081</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>32.42826541038554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>125.401078273077</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697911</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>66.83919756939021</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>68.06021040898989</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301915</v>
+        <v>21.37491637269756</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>87.65205602144977</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>117.0247149940946</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>174.4731784754576</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697911</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
-        <v>6.969411036794696</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121082</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.964581131881644</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417304</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>726465.5226676824</v>
+        <v>726465.5226676823</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>726465.5226676824</v>
+        <v>726465.5226676823</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726465.5226676824</v>
+        <v>726465.5226676823</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="F2" t="n">
         <v>694893.1270522205</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="H2" t="n">
+        <v>694893.1270522205</v>
+      </c>
+      <c r="I2" t="n">
         <v>694893.1270522207</v>
       </c>
-      <c r="G2" t="n">
-        <v>694893.1270522211</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>694893.1270522206</v>
       </c>
-      <c r="I2" t="n">
-        <v>694893.1270522205</v>
-      </c>
-      <c r="J2" t="n">
-        <v>694893.1270522209</v>
-      </c>
       <c r="K2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="L2" t="n">
+        <v>709109.9442781718</v>
+      </c>
+      <c r="M2" t="n">
         <v>709109.944278172</v>
       </c>
-      <c r="M2" t="n">
-        <v>709109.9442781719</v>
-      </c>
       <c r="N2" t="n">
-        <v>709109.9442781725</v>
+        <v>709109.9442781722</v>
       </c>
       <c r="O2" t="n">
-        <v>709109.944278172</v>
+        <v>709109.9442781722</v>
       </c>
       <c r="P2" t="n">
-        <v>709109.9442781718</v>
+        <v>709109.9442781721</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306935</v>
+        <v>22717.0664230693</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389447</v>
@@ -26427,10 +26427,10 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
@@ -26439,25 +26439,25 @@
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
-        <v>27492.30103190632</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="M4" t="n">
-        <v>27492.30103190632</v>
+        <v>27492.30103190628</v>
       </c>
       <c r="N4" t="n">
-        <v>27492.30103190626</v>
+        <v>27492.30103190627</v>
       </c>
       <c r="O4" t="n">
-        <v>27492.30103190633</v>
+        <v>27492.30103190627</v>
       </c>
       <c r="P4" t="n">
-        <v>27492.30103190643</v>
+        <v>27492.3010319063</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26488,28 +26488,28 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>98770.76957511494</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="M5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="N5" t="n">
-        <v>98770.76957511494</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="O5" t="n">
-        <v>98770.76957511494</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511489</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137764.0955038343</v>
+        <v>-137764.0955038338</v>
       </c>
       <c r="C6" t="n">
-        <v>452203.7837107107</v>
+        <v>452203.7837107105</v>
       </c>
       <c r="D6" t="n">
-        <v>452203.7837107106</v>
+        <v>452203.7837107105</v>
       </c>
       <c r="E6" t="n">
-        <v>-147016.2975140898</v>
+        <v>-147083.4930043154</v>
       </c>
       <c r="F6" t="n">
-        <v>580361.1164793172</v>
+        <v>580293.9209890912</v>
       </c>
       <c r="G6" t="n">
-        <v>580361.1164793173</v>
+        <v>580293.9209890913</v>
       </c>
       <c r="H6" t="n">
-        <v>580361.1164793171</v>
+        <v>580293.9209890912</v>
       </c>
       <c r="I6" t="n">
-        <v>580361.116479317</v>
+        <v>580293.9209890913</v>
       </c>
       <c r="J6" t="n">
-        <v>403937.8972867243</v>
+        <v>403870.7017964983</v>
       </c>
       <c r="K6" t="n">
-        <v>580361.116479317</v>
+        <v>580293.9209890914</v>
       </c>
       <c r="L6" t="n">
-        <v>560129.8072480814</v>
+        <v>560103.2312356438</v>
       </c>
       <c r="M6" t="n">
-        <v>453204.5588322059</v>
+        <v>453177.9828197687</v>
       </c>
       <c r="N6" t="n">
-        <v>582846.8736711512</v>
+        <v>582820.2976587137</v>
       </c>
       <c r="O6" t="n">
-        <v>582846.8736711508</v>
+        <v>582820.2976587137</v>
       </c>
       <c r="P6" t="n">
-        <v>582846.8736711519</v>
+        <v>582820.2976587135</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,20 +26966,20 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.386672487468861e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.90827388955131</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>196.23311616204</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>300.6259051101324</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.5945811832545</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U7" t="n">
-        <v>150.1532355138456</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>144.3619051110309</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>229.3121078905076</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.9809822185506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106054</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883669</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837924</v>
@@ -32093,7 +32093,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987486</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138863</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>778.3512449206476</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35586,7 +35586,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>566.3068505743948</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>906.0660702419985</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222472</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004591</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127271</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>635.0591000995346</v>
       </c>
       <c r="N17" t="n">
-        <v>566.2900742483819</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,10 +36051,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>558.7186215464202</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>766.6741794499121</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36361,22 +36361,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>635.0034264784692</v>
       </c>
       <c r="O23" t="n">
-        <v>727.3874636142355</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306619</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36525,16 +36525,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306619</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36762,10 +36762,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>802.9237881683838</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37069,7 +37069,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>539.1576964255137</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>648.2134880573209</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190292</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K34" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L34" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M34" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O34" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
         <v>263.3534041739471</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
@@ -37318,7 +37318,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>597.5775642778385</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190292</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K37" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L37" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M37" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O37" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
         <v>263.3534041739471</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>323.7860185257258</v>
+        <v>208.2378022852229</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
@@ -37552,13 +37552,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597715</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190292</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K40" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L40" t="n">
         <v>348.1537051990348</v>
@@ -37710,10 +37710,10 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O40" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P40" t="n">
         <v>263.3534041739471</v>
@@ -37780,25 +37780,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>575.5896386552627</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>404.0461784550341</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190292</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K43" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
         <v>348.1537051990348</v>
@@ -37947,10 +37947,10 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O43" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P43" t="n">
         <v>263.3534041739471</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407856</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.336699126564</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427811</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302252</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.648759824894</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>531.8611444048665</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193705</v>
+        <v>466.2986239864146</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152067</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597665</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340122</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190263</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731558</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
-        <v>348.1537051990342</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223199</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963762</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514759</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
-        <v>263.3534041739466</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.79057156673</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
